--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 4 (46, 56, 4, 38, 5)/Ableson 0 (8, 45, 1, 2, 24)/NCDE_32nodes_Uniform0.05Virtual_Nelson(46, 56, 4, 38, 5)_Ableson(8, 45, 1, 2, 24)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 4 (46, 56, 4, 38, 5)/Ableson 0 (8, 45, 1, 2, 24)/NCDE_32nodes_Uniform0.05Virtual_Nelson(46, 56, 4, 38, 5)_Ableson(8, 45, 1, 2, 24)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.8221793775033618</v>
+        <v>0.8198218995343602</v>
       </c>
       <c r="E2">
-        <v>0.8221793775033618</v>
+        <v>0.8198218995343602</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.0008668583724645138</v>
+        <v>0.0008712521381848836</v>
       </c>
       <c r="E3">
-        <v>0.0008668583724645138</v>
+        <v>0.0008712521381848836</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>3.102995885804824E-06</v>
+        <v>3.041250910198796E-06</v>
       </c>
       <c r="E4">
-        <v>3.102995885804824E-06</v>
+        <v>3.041250910198796E-06</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.081532593629669</v>
+        <v>0.08154112952028401</v>
       </c>
       <c r="E5">
-        <v>0.081532593629669</v>
+        <v>0.08154112952028401</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9330530262127026</v>
+        <v>0.9335990326873733</v>
       </c>
       <c r="E6">
-        <v>0.9330530262127026</v>
+        <v>0.9335990326873733</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -523,13 +523,13 @@
         <v>11</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.9925335483484858</v>
+        <v>0.000161088601295737</v>
       </c>
       <c r="E7">
-        <v>0.007466451651514161</v>
+        <v>0.9998389113987043</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9923686786386482</v>
+        <v>0.9999999999977665</v>
       </c>
       <c r="E8">
-        <v>0.007631321361351806</v>
+        <v>2.23354668094089E-12</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9920555111972723</v>
+        <v>0.7977890430993961</v>
       </c>
       <c r="E9">
-        <v>0.007944488802727689</v>
+        <v>0.2022109569006039</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.9920156431835819</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0.00798435681641807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9929467089434106</v>
+        <v>0.9740772405200334</v>
       </c>
       <c r="E11">
-        <v>0.007053291056589361</v>
+        <v>0.02592275947996658</v>
       </c>
       <c r="F11">
-        <v>0.4554978907108307</v>
+        <v>1.349751710891724</v>
       </c>
       <c r="G11">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0.0001052906524231149</v>
+        <v>0.0001040467123140103</v>
       </c>
       <c r="E12">
-        <v>0.0001052906524231149</v>
+        <v>0.0001040467123140103</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0.0002564075666968299</v>
+        <v>0.000258174366474553</v>
       </c>
       <c r="E13">
-        <v>0.0002564075666968299</v>
+        <v>0.000258174366474553</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>2.426203705766005E-13</v>
+        <v>2.387051485909284E-13</v>
       </c>
       <c r="E14">
-        <v>2.426203705766005E-13</v>
+        <v>2.387051485909284E-13</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0.0351251335006721</v>
+        <v>0.03517894395232058</v>
       </c>
       <c r="E15">
-        <v>0.0351251335006721</v>
+        <v>0.03517894395232058</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.9959810999223832</v>
+        <v>0.9960015487859081</v>
       </c>
       <c r="E16">
-        <v>0.9959810999223832</v>
+        <v>0.9960015487859081</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -672,13 +672,13 @@
         <v>11</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.9997329697424459</v>
+        <v>6.264109280367846E-07</v>
       </c>
       <c r="E17">
-        <v>0.0002670302575541461</v>
+        <v>0.999999373589072</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -689,10 +689,10 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.9997274067465129</v>
+        <v>0.9999999999999967</v>
       </c>
       <c r="E18">
-        <v>0.0002725932534870523</v>
+        <v>3.33066907387547E-15</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -700,13 +700,13 @@
         <v>13</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.9996982581975318</v>
+        <v>7.080365868497946E-05</v>
       </c>
       <c r="E19">
-        <v>0.000301741802468225</v>
+        <v>0.9999291963413151</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -717,10 +717,10 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0.9997036721920671</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0.0002963278079328724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -731,16 +731,16 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.9997627125647746</v>
+        <v>0.9999585299564866</v>
       </c>
       <c r="E21">
-        <v>0.0002372874352254417</v>
+        <v>4.1470043513403E-05</v>
       </c>
       <c r="F21">
-        <v>0.5554239749908447</v>
+        <v>2.939692258834839</v>
       </c>
       <c r="G21">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
